--- a/spreadsheets/EMAC_TraduccionGamma.xlsx
+++ b/spreadsheets/EMAC_TraduccionGamma.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Code Projects\movilidad-src\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B25446F-5BF2-48DB-8149-C5847A87E019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CAD029-45DE-4B05-AD74-583C10C67134}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ECD4910F-0F1F-4122-A3AF-D94B0934C2FD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -648,7 +648,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="24.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
